--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.439247999999999</v>
+        <v>5.690303</v>
       </c>
       <c r="H2">
-        <v>13.317744</v>
+        <v>17.070909</v>
       </c>
       <c r="I2">
-        <v>0.3193177756555053</v>
+        <v>0.3759010823723209</v>
       </c>
       <c r="J2">
-        <v>0.3193177756555053</v>
+        <v>0.3759010823723208</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N2">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O2">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P2">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q2">
-        <v>2.950361214533333</v>
+        <v>5.525847552997</v>
       </c>
       <c r="R2">
-        <v>26.55325093079999</v>
+        <v>49.732627976973</v>
       </c>
       <c r="S2">
-        <v>0.001761214965149605</v>
+        <v>0.002963068367954679</v>
       </c>
       <c r="T2">
-        <v>0.001761214965149605</v>
+        <v>0.002963068367954679</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.439247999999999</v>
+        <v>5.690303</v>
       </c>
       <c r="H3">
-        <v>13.317744</v>
+        <v>17.070909</v>
       </c>
       <c r="I3">
-        <v>0.3193177756555053</v>
+        <v>0.3759010823723209</v>
       </c>
       <c r="J3">
-        <v>0.3193177756555053</v>
+        <v>0.3759010823723208</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>257.478072</v>
       </c>
       <c r="O3">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P3">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q3">
-        <v>381.003005389952</v>
+        <v>488.376081845272</v>
       </c>
       <c r="R3">
-        <v>3429.027048509568</v>
+        <v>4395.384736607448</v>
       </c>
       <c r="S3">
-        <v>0.2274393357512658</v>
+        <v>0.2618768805875808</v>
       </c>
       <c r="T3">
-        <v>0.2274393357512658</v>
+        <v>0.2618768805875807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.439247999999999</v>
+        <v>5.690303</v>
       </c>
       <c r="H4">
-        <v>13.317744</v>
+        <v>17.070909</v>
       </c>
       <c r="I4">
-        <v>0.3193177756555053</v>
+        <v>0.3759010823723209</v>
       </c>
       <c r="J4">
-        <v>0.3193177756555053</v>
+        <v>0.3759010823723208</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N4">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O4">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P4">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q4">
-        <v>150.9216854392427</v>
+        <v>206.2687361405304</v>
       </c>
       <c r="R4">
-        <v>1358.295168953184</v>
+        <v>1856.418625264773</v>
       </c>
       <c r="S4">
-        <v>0.09009253838202949</v>
+        <v>0.1106053617104423</v>
       </c>
       <c r="T4">
-        <v>0.09009253838202948</v>
+        <v>0.1106053617104423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.439247999999999</v>
+        <v>5.690303</v>
       </c>
       <c r="H5">
-        <v>13.317744</v>
+        <v>17.070909</v>
       </c>
       <c r="I5">
-        <v>0.3193177756555053</v>
+        <v>0.3759010823723209</v>
       </c>
       <c r="J5">
-        <v>0.3193177756555053</v>
+        <v>0.3759010823723208</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N5">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O5">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P5">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q5">
-        <v>0.04135455461866667</v>
+        <v>0.8499719397159999</v>
       </c>
       <c r="R5">
-        <v>0.372190991568</v>
+        <v>7.649747457444</v>
       </c>
       <c r="S5">
-        <v>2.468655706044213E-05</v>
+        <v>0.0004557717063431497</v>
       </c>
       <c r="T5">
-        <v>2.468655706044212E-05</v>
+        <v>0.0004557717063431495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>11.681579</v>
       </c>
       <c r="I6">
-        <v>0.2800876651799331</v>
+        <v>0.2572281411562661</v>
       </c>
       <c r="J6">
-        <v>0.2800876651799331</v>
+        <v>0.2572281411562661</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N6">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O6">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P6">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q6">
-        <v>2.587891583297222</v>
+        <v>3.781323228440333</v>
       </c>
       <c r="R6">
-        <v>23.291024249675</v>
+        <v>34.031909055963</v>
       </c>
       <c r="S6">
-        <v>0.001544839107237484</v>
+        <v>0.002027620041947599</v>
       </c>
       <c r="T6">
-        <v>0.001544839107237484</v>
+        <v>0.002027620041947599</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.681579</v>
       </c>
       <c r="I7">
-        <v>0.2800876651799331</v>
+        <v>0.2572281411562661</v>
       </c>
       <c r="J7">
-        <v>0.2800876651799331</v>
+        <v>0.2572281411562661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>257.478072</v>
       </c>
       <c r="O7">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P7">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q7">
         <v>334.1944932039653</v>
@@ -883,10 +883,10 @@
         <v>3007.750438835688</v>
       </c>
       <c r="S7">
-        <v>0.1994970445659517</v>
+        <v>0.1792016739622589</v>
       </c>
       <c r="T7">
-        <v>0.1994970445659517</v>
+        <v>0.1792016739622589</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.681579</v>
       </c>
       <c r="I8">
-        <v>0.2800876651799331</v>
+        <v>0.2572281411562661</v>
       </c>
       <c r="J8">
-        <v>0.2800876651799331</v>
+        <v>0.2572281411562661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N8">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O8">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P8">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q8">
-        <v>132.3800480976104</v>
+        <v>141.1491641397514</v>
       </c>
       <c r="R8">
-        <v>1191.420432878494</v>
+        <v>1270.342477257763</v>
       </c>
       <c r="S8">
-        <v>0.07902412784178836</v>
+        <v>0.07568696374891967</v>
       </c>
       <c r="T8">
-        <v>0.07902412784178835</v>
+        <v>0.07568696374891966</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>11.681579</v>
       </c>
       <c r="I9">
-        <v>0.2800876651799331</v>
+        <v>0.2572281411562661</v>
       </c>
       <c r="J9">
-        <v>0.2800876651799331</v>
+        <v>0.2572281411562661</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N9">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O9">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P9">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q9">
-        <v>0.03627389870144445</v>
+        <v>0.5816336061293332</v>
       </c>
       <c r="R9">
-        <v>0.326465088313</v>
+        <v>5.234702455163999</v>
       </c>
       <c r="S9">
-        <v>2.16536649555332E-05</v>
+        <v>0.0003118834031399442</v>
       </c>
       <c r="T9">
-        <v>2.16536649555332E-05</v>
+        <v>0.0003118834031399442</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.833976</v>
+        <v>4.648693333333333</v>
       </c>
       <c r="H10">
-        <v>11.501928</v>
+        <v>13.94608</v>
       </c>
       <c r="I10">
-        <v>0.2757801970596353</v>
+        <v>0.3070924088957991</v>
       </c>
       <c r="J10">
-        <v>0.2757801970596353</v>
+        <v>0.307092408895799</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N10">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O10">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P10">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q10">
-        <v>2.5480923994</v>
+        <v>4.514341447306666</v>
       </c>
       <c r="R10">
-        <v>22.9328315946</v>
+        <v>40.62907302575999</v>
       </c>
       <c r="S10">
-        <v>0.001521081027062337</v>
+        <v>0.002420678858106817</v>
       </c>
       <c r="T10">
-        <v>0.001521081027062336</v>
+        <v>0.002420678858106817</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.833976</v>
+        <v>4.648693333333333</v>
       </c>
       <c r="H11">
-        <v>11.501928</v>
+        <v>13.94608</v>
       </c>
       <c r="I11">
-        <v>0.2757801970596353</v>
+        <v>0.3070924088957991</v>
       </c>
       <c r="J11">
-        <v>0.2757801970596353</v>
+        <v>0.307092408895799</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>257.478072</v>
       </c>
       <c r="O11">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P11">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q11">
-        <v>329.054916191424</v>
+        <v>398.9788655953067</v>
       </c>
       <c r="R11">
-        <v>2961.494245722816</v>
+        <v>3590.80979035776</v>
       </c>
       <c r="S11">
-        <v>0.1964289795763371</v>
+        <v>0.2139403312866848</v>
       </c>
       <c r="T11">
-        <v>0.196428979576337</v>
+        <v>0.2139403312866847</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.833976</v>
+        <v>4.648693333333333</v>
       </c>
       <c r="H12">
-        <v>11.501928</v>
+        <v>13.94608</v>
       </c>
       <c r="I12">
-        <v>0.2757801970596353</v>
+        <v>0.3070924088957991</v>
       </c>
       <c r="J12">
-        <v>0.2757801970596353</v>
+        <v>0.307092408895799</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N12">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O12">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P12">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q12">
-        <v>130.344175376912</v>
+        <v>168.5112547735289</v>
       </c>
       <c r="R12">
-        <v>1173.097578392208</v>
+        <v>1516.60129296176</v>
       </c>
       <c r="S12">
-        <v>0.07780881580298735</v>
+        <v>0.09035905603168319</v>
       </c>
       <c r="T12">
-        <v>0.07780881580298733</v>
+        <v>0.09035905603168316</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.833976</v>
+        <v>4.648693333333333</v>
       </c>
       <c r="H13">
-        <v>11.501928</v>
+        <v>13.94608</v>
       </c>
       <c r="I13">
-        <v>0.2757801970596353</v>
+        <v>0.3070924088957991</v>
       </c>
       <c r="J13">
-        <v>0.2757801970596353</v>
+        <v>0.307092408895799</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N13">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O13">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P13">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q13">
-        <v>0.03571604242400001</v>
+        <v>0.6943846205866665</v>
       </c>
       <c r="R13">
-        <v>0.321444381816</v>
+        <v>6.249461585279999</v>
       </c>
       <c r="S13">
-        <v>2.13206532485605E-05</v>
+        <v>0.0003723427193243237</v>
       </c>
       <c r="T13">
-        <v>2.132065324856049E-05</v>
+        <v>0.0003723427193243237</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.735205333333333</v>
+        <v>0.9049109999999999</v>
       </c>
       <c r="H14">
-        <v>5.205616</v>
+        <v>2.714733</v>
       </c>
       <c r="I14">
-        <v>0.1248143621049263</v>
+        <v>0.05977836757561403</v>
       </c>
       <c r="J14">
-        <v>0.1248143621049263</v>
+        <v>0.05977836757561403</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N14">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O14">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P14">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q14">
-        <v>1.153231924577778</v>
+        <v>0.8787581671889999</v>
       </c>
       <c r="R14">
-        <v>10.3790873212</v>
+        <v>7.908823504701</v>
       </c>
       <c r="S14">
-        <v>0.0006884205614721405</v>
+        <v>0.0004712074488677028</v>
       </c>
       <c r="T14">
-        <v>0.0006884205614721404</v>
+        <v>0.0004712074488677028</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.735205333333333</v>
+        <v>0.9049109999999999</v>
       </c>
       <c r="H15">
-        <v>5.205616</v>
+        <v>2.714733</v>
       </c>
       <c r="I15">
-        <v>0.1248143621049263</v>
+        <v>0.05977836757561403</v>
       </c>
       <c r="J15">
-        <v>0.1248143621049263</v>
+        <v>0.05977836757561403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>257.478072</v>
       </c>
       <c r="O15">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P15">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q15">
-        <v>148.9257745835947</v>
+        <v>77.66491320386399</v>
       </c>
       <c r="R15">
-        <v>1340.331971252352</v>
+        <v>698.9842188347759</v>
       </c>
       <c r="S15">
-        <v>0.08890108153574371</v>
+        <v>0.04164545717326271</v>
       </c>
       <c r="T15">
-        <v>0.08890108153574369</v>
+        <v>0.0416454571732627</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.735205333333333</v>
+        <v>0.9049109999999999</v>
       </c>
       <c r="H16">
-        <v>5.205616</v>
+        <v>2.714733</v>
       </c>
       <c r="I16">
-        <v>0.1248143621049263</v>
+        <v>0.05977836757561403</v>
       </c>
       <c r="J16">
-        <v>0.1248143621049263</v>
+        <v>0.05977836757561403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N16">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O16">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P16">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q16">
-        <v>58.99199898041956</v>
+        <v>32.802268752589</v>
       </c>
       <c r="R16">
-        <v>530.927990823776</v>
+        <v>295.220418773301</v>
       </c>
       <c r="S16">
-        <v>0.03521521057035688</v>
+        <v>0.0175892230116319</v>
       </c>
       <c r="T16">
-        <v>0.03521521057035688</v>
+        <v>0.01758922301163189</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.735205333333333</v>
+        <v>0.9049109999999999</v>
       </c>
       <c r="H17">
-        <v>5.205616</v>
+        <v>2.714733</v>
       </c>
       <c r="I17">
-        <v>0.1248143621049263</v>
+        <v>0.05977836757561403</v>
       </c>
       <c r="J17">
-        <v>0.1248143621049263</v>
+        <v>0.05977836757561403</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N17">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O17">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P17">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q17">
-        <v>0.01616459448355556</v>
+        <v>0.135168365892</v>
       </c>
       <c r="R17">
-        <v>0.145481350352</v>
+        <v>1.216515293028</v>
       </c>
       <c r="S17">
-        <v>9.649437353560072E-06</v>
+        <v>7.247994185172315E-05</v>
       </c>
       <c r="T17">
-        <v>9.649437353560071E-06</v>
+        <v>7.247994185172315E-05</v>
       </c>
     </row>
   </sheetData>
